--- a/biology/Médecine/Journey_Into_Medicine/Journey_Into_Medicine.xlsx
+++ b/biology/Médecine/Journey_Into_Medicine/Journey_Into_Medicine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Journey Into Medicine (littéralement Voyage au cœur de la médecine) est un film documentaire américain réalisé par Willard Van Dyke, sorti en 1947. 
 Le film est nommé pour l'Oscar du meilleur film documentaire lors de la 20e cérémonie des Oscars, en 1948.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce documentaire a été produit par l'United States Information Agency à destination du reste du monde, afin de montrer aux non-américains comment fonctionne la médecine aux États-Unis et, plus globalement, le système de santé public.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Journey Into Medicine
 Réalisation : Willard Van Dyke
@@ -586,9 +602,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a été nommé à l'Oscar du meilleur film documentaire[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été nommé à l'Oscar du meilleur film documentaire.
 </t>
         </is>
       </c>
